--- a/bookkeeper-testing0.xlsx
+++ b/bookkeeper-testing0.xlsx
@@ -825,7 +825,7 @@
         <v>10.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>1420.0</v>
@@ -866,7 +866,7 @@
         <v>25.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G3" t="n">
         <v>2670.0</v>
@@ -948,7 +948,7 @@
         <v>10.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>1525.0</v>
@@ -989,7 +989,7 @@
         <v>100.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
         <v>2900.0</v>
@@ -1030,7 +1030,7 @@
         <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G7" t="n">
         <v>265.0</v>
@@ -1071,7 +1071,7 @@
         <v>10.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G8" t="n">
         <v>315.0</v>
@@ -1112,7 +1112,7 @@
         <v>10.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G9" t="n">
         <v>165.0</v>
@@ -1194,7 +1194,7 @@
         <v>10.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G11" t="n">
         <v>1010.0</v>
@@ -1235,7 +1235,7 @@
         <v>60.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G12" t="n">
         <v>1875.0</v>
@@ -1276,7 +1276,7 @@
         <v>5.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n">
         <v>200.0</v>
@@ -1317,7 +1317,7 @@
         <v>20.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G14" t="n">
         <v>650.0</v>
@@ -1358,7 +1358,7 @@
         <v>20.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G15" t="n">
         <v>2005.0</v>
@@ -1399,7 +1399,7 @@
         <v>35.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G16" t="n">
         <v>2725.0</v>
@@ -1440,7 +1440,7 @@
         <v>5.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>160.0</v>
@@ -1481,7 +1481,7 @@
         <v>10.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G18" t="n">
         <v>370.0</v>
@@ -1522,7 +1522,7 @@
         <v>20.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G19" t="n">
         <v>1055.0</v>
@@ -1563,7 +1563,7 @@
         <v>15.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G20" t="n">
         <v>2945.0</v>
@@ -1604,7 +1604,7 @@
         <v>15.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" t="n">
         <v>805.0</v>
@@ -1645,7 +1645,7 @@
         <v>40.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="n">
         <v>640.0</v>
@@ -1686,7 +1686,7 @@
         <v>10.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
         <v>400.0</v>
@@ -1727,7 +1727,7 @@
         <v>45.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G24" t="n">
         <v>4520.0</v>
@@ -1768,7 +1768,7 @@
         <v>5.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
         <v>300.0</v>
@@ -1809,7 +1809,7 @@
         <v>25.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="n">
         <v>370.0</v>
@@ -1850,7 +1850,7 @@
         <v>10.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" t="n">
         <v>590.0</v>
@@ -1891,7 +1891,7 @@
         <v>10.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
         <v>275.0</v>
@@ -1932,7 +1932,7 @@
         <v>10.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G29" t="n">
         <v>45.0</v>
@@ -1973,7 +1973,7 @@
         <v>5.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
         <v>455.0</v>
@@ -2055,7 +2055,7 @@
         <v>5.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G32" t="n">
         <v>60.0</v>
@@ -2096,7 +2096,7 @@
         <v>5.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
         <v>55.0</v>
@@ -2137,7 +2137,7 @@
         <v>25.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="n">
         <v>125.0</v>
@@ -2178,7 +2178,7 @@
         <v>40.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G35" t="n">
         <v>1070.0</v>
@@ -2219,7 +2219,7 @@
         <v>30.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G36" t="n">
         <v>555.0</v>
@@ -2260,7 +2260,7 @@
         <v>5.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>45.0</v>
@@ -2301,7 +2301,7 @@
         <v>15.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" t="n">
         <v>40.0</v>
@@ -2342,7 +2342,7 @@
         <v>5.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
         <v>65.0</v>
@@ -2383,7 +2383,7 @@
         <v>10.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" t="n">
         <v>130.0</v>
@@ -2506,7 +2506,7 @@
         <v>45.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G43" t="n">
         <v>1105.0</v>
@@ -2547,7 +2547,7 @@
         <v>25.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G44" t="n">
         <v>350.0</v>
@@ -2588,7 +2588,7 @@
         <v>5.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
         <v>25.0</v>
@@ -2629,7 +2629,7 @@
         <v>30.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G46" t="n">
         <v>150.0</v>
@@ -2670,7 +2670,7 @@
         <v>5.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G47" t="n">
         <v>130.0</v>
@@ -2711,7 +2711,7 @@
         <v>10.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G48" t="n">
         <v>25.0</v>
@@ -2752,7 +2752,7 @@
         <v>15.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G49" t="n">
         <v>85.0</v>
@@ -2793,7 +2793,7 @@
         <v>25.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
         <v>295.0</v>
@@ -2834,7 +2834,7 @@
         <v>5.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" t="n">
         <v>10.0</v>
@@ -2875,7 +2875,7 @@
         <v>5.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G52" t="n">
         <v>125.0</v>
@@ -2957,7 +2957,7 @@
         <v>10.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G54" t="n">
         <v>50.0</v>
@@ -2998,7 +2998,7 @@
         <v>15.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G55" t="n">
         <v>305.0</v>
@@ -3039,7 +3039,7 @@
         <v>30.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G56" t="n">
         <v>910.0</v>
@@ -3080,7 +3080,7 @@
         <v>5.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G57" t="n">
         <v>135.0</v>
@@ -3121,7 +3121,7 @@
         <v>10.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" t="n">
         <v>445.0</v>
@@ -3162,7 +3162,7 @@
         <v>20.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G59" t="n">
         <v>180.0</v>
@@ -3203,7 +3203,7 @@
         <v>10.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G60" t="n">
         <v>60.0</v>
@@ -3244,7 +3244,7 @@
         <v>20.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G61" t="n">
         <v>145.0</v>
@@ -3285,7 +3285,7 @@
         <v>5.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G62" t="n">
         <v>25.0</v>
@@ -3326,7 +3326,7 @@
         <v>5.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G63" t="n">
         <v>25.0</v>
@@ -3367,7 +3367,7 @@
         <v>5.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
         <v>5.0</v>
@@ -3408,7 +3408,7 @@
         <v>5.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G65" t="n">
         <v>660.0</v>
@@ -3449,7 +3449,7 @@
         <v>5.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G66" t="n">
         <v>1180.0</v>
@@ -3490,7 +3490,7 @@
         <v>15.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G67" t="n">
         <v>245.0</v>
@@ -3531,7 +3531,7 @@
         <v>15.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G68" t="n">
         <v>100.0</v>
@@ -3572,7 +3572,7 @@
         <v>45.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="n">
         <v>765.0</v>
@@ -3613,7 +3613,7 @@
         <v>5.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G70" t="n">
         <v>450.0</v>
@@ -3654,7 +3654,7 @@
         <v>5.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G71" t="n">
         <v>290.0</v>
@@ -3736,7 +3736,7 @@
         <v>20.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
         <v>45.0</v>
@@ -3777,7 +3777,7 @@
         <v>50.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G74" t="n">
         <v>965.0</v>
@@ -3941,7 +3941,7 @@
         <v>5.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G78" t="n">
         <v>10.0</v>
@@ -3982,7 +3982,7 @@
         <v>10.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="n">
         <v>3330.0</v>
@@ -4023,7 +4023,7 @@
         <v>5.0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G80" t="n">
         <v>275.0</v>
@@ -4064,7 +4064,7 @@
         <v>25.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G81" t="n">
         <v>545.0</v>
@@ -4474,7 +4474,7 @@
         <v>15.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G91" t="n">
         <v>430.0</v>
@@ -4515,7 +4515,7 @@
         <v>5.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G92" t="n">
         <v>15.0</v>
@@ -4556,7 +4556,7 @@
         <v>5.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G93" t="n">
         <v>20.0</v>
@@ -4597,7 +4597,7 @@
         <v>5.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G94" t="n">
         <v>75.0</v>
@@ -4679,7 +4679,7 @@
         <v>5.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="n">
         <v>295.0</v>
@@ -4720,7 +4720,7 @@
         <v>5.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G97" t="n">
         <v>65.0</v>
@@ -4802,7 +4802,7 @@
         <v>5.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G99" t="n">
         <v>45.0</v>
@@ -4884,7 +4884,7 @@
         <v>5.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G101" t="n">
         <v>180.0</v>
@@ -5171,7 +5171,7 @@
         <v>5.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G108" t="n">
         <v>70.0</v>
@@ -5212,7 +5212,7 @@
         <v>5.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G109" t="n">
         <v>210.0</v>
@@ -5376,7 +5376,7 @@
         <v>5.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G113" t="n">
         <v>35.0</v>
@@ -5417,7 +5417,7 @@
         <v>5.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G114" t="n">
         <v>25.0</v>
@@ -5458,7 +5458,7 @@
         <v>5.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G115" t="n">
         <v>60.0</v>
@@ -5499,7 +5499,7 @@
         <v>20.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G116" t="n">
         <v>600.0</v>
@@ -5540,7 +5540,7 @@
         <v>5.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="n">
         <v>5.0</v>
@@ -5581,7 +5581,7 @@
         <v>5.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G118" t="n">
         <v>25.0</v>
@@ -5704,7 +5704,7 @@
         <v>5.0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G121" t="n">
         <v>45.0</v>
@@ -5950,7 +5950,7 @@
         <v>5.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G127" t="n">
         <v>25.0</v>
@@ -6073,7 +6073,7 @@
         <v>5.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G130" t="n">
         <v>15.0</v>
@@ -6155,7 +6155,7 @@
         <v>5.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G132" t="n">
         <v>32520.0</v>
@@ -6237,7 +6237,7 @@
         <v>5.0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G134" t="n">
         <v>5.0</v>
@@ -6319,7 +6319,7 @@
         <v>10.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>2140.0</v>
@@ -6360,7 +6360,7 @@
         <v>10.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G137" t="n">
         <v>5285.0</v>
@@ -6401,7 +6401,7 @@
         <v>5.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G138" t="n">
         <v>460.0</v>
@@ -6442,7 +6442,7 @@
         <v>10.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G139" t="n">
         <v>1785.0</v>
@@ -6483,7 +6483,7 @@
         <v>15.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G140" t="n">
         <v>2035.0</v>
@@ -6729,7 +6729,7 @@
         <v>10.0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G146" t="n">
         <v>60.0</v>
@@ -6770,7 +6770,7 @@
         <v>5.0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G147" t="n">
         <v>5.0</v>
@@ -6893,7 +6893,7 @@
         <v>5.0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G150" t="n">
         <v>20.0</v>
@@ -7016,7 +7016,7 @@
         <v>10.0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="n">
         <v>35.0</v>
@@ -7057,7 +7057,7 @@
         <v>10.0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G154" t="n">
         <v>55.0</v>
@@ -7098,7 +7098,7 @@
         <v>5.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G155" t="n">
         <v>15.0</v>
@@ -7180,7 +7180,7 @@
         <v>5.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G157" t="n">
         <v>40.0</v>
@@ -7262,7 +7262,7 @@
         <v>10.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G159" t="n">
         <v>260.0</v>
@@ -7303,7 +7303,7 @@
         <v>5.0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G160" t="n">
         <v>155.0</v>
@@ -7344,7 +7344,7 @@
         <v>5.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G161" t="n">
         <v>45.0</v>
@@ -7385,7 +7385,7 @@
         <v>5.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G162" t="n">
         <v>70.0</v>
@@ -7426,7 +7426,7 @@
         <v>5.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G163" t="n">
         <v>50.0</v>
@@ -7467,7 +7467,7 @@
         <v>5.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G164" t="n">
         <v>185.0</v>
@@ -7508,7 +7508,7 @@
         <v>5.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G165" t="n">
         <v>135.0</v>
@@ -7549,7 +7549,7 @@
         <v>5.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G166" t="n">
         <v>240.0</v>
@@ -7590,7 +7590,7 @@
         <v>15.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G167" t="n">
         <v>395.0</v>
@@ -7631,7 +7631,7 @@
         <v>5.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G168" t="n">
         <v>385.0</v>
@@ -7672,7 +7672,7 @@
         <v>5.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G169" t="n">
         <v>315.0</v>
@@ -7754,7 +7754,7 @@
         <v>10.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G171" t="n">
         <v>965.0</v>
@@ -7795,7 +7795,7 @@
         <v>5.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G172" t="n">
         <v>5.0</v>
@@ -7836,7 +7836,7 @@
         <v>15.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G173" t="n">
         <v>1035.0</v>
@@ -8000,7 +8000,7 @@
         <v>10.0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G177" t="n">
         <v>310.0</v>
@@ -8082,7 +8082,7 @@
         <v>5.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G179" t="n">
         <v>15.0</v>
@@ -8246,7 +8246,7 @@
         <v>15.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G183" t="n">
         <v>215.0</v>
@@ -8287,7 +8287,7 @@
         <v>5.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G184" t="n">
         <v>320.0</v>
@@ -8328,7 +8328,7 @@
         <v>5.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G185" t="n">
         <v>225.0</v>
@@ -8533,7 +8533,7 @@
         <v>10.0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G190" t="n">
         <v>105.0</v>
@@ -8574,7 +8574,7 @@
         <v>5.0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G191" t="n">
         <v>10.0</v>
@@ -8697,7 +8697,7 @@
         <v>5.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G194" t="n">
         <v>20.0</v>
@@ -8738,7 +8738,7 @@
         <v>5.0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G195" t="n">
         <v>5.0</v>
@@ -8943,7 +8943,7 @@
         <v>5.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G200" t="n">
         <v>90.0</v>
@@ -8984,7 +8984,7 @@
         <v>15.0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G201" t="n">
         <v>1265.0</v>
@@ -9066,7 +9066,7 @@
         <v>20.0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G203" t="n">
         <v>925.0</v>
@@ -9189,7 +9189,7 @@
         <v>5.0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G206" t="n">
         <v>120.0</v>
@@ -9312,7 +9312,7 @@
         <v>5.0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G209" t="n">
         <v>20.0</v>
@@ -9353,7 +9353,7 @@
         <v>5.0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G210" t="n">
         <v>5.0</v>
@@ -9435,7 +9435,7 @@
         <v>5.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G212" t="n">
         <v>20.0</v>
@@ -9476,7 +9476,7 @@
         <v>5.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G213" t="n">
         <v>25.0</v>
@@ -9558,7 +9558,7 @@
         <v>5.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G215" t="n">
         <v>25.0</v>
@@ -9599,7 +9599,7 @@
         <v>10.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G216" t="n">
         <v>90.0</v>
@@ -9681,7 +9681,7 @@
         <v>5.0</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G218" t="n">
         <v>5.0</v>
